--- a/data/raw/thirdpostbatch8.xlsx
+++ b/data/raw/thirdpostbatch8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="463">
   <si>
     <t>postCategory</t>
   </si>
@@ -113,7 +113,7 @@
     <t>4243749751</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;b&gt;🎾🍎🎾　　 ASIAN SPA-BEST IN TOWN 　　🎾🍎🎾 🔲🌇🔲&lt;a&gt; 　VIP&lt;/a&gt; SAUNA - &lt;a&gt;4 HAND SPECIAL&lt;/a&gt;🔲🌇🔲&lt;p&gt; 🌇　NEW SEXY LINE UP 　🌇&lt;p&gt;🎾&lt;a&gt; SERVING ALL LA AREA&lt;/a&gt; &lt;p&gt;🎾 Open Daily Late &lt;p&gt;🌇🌇 Hot Steam Towel &amp;amp; T-Shower Body Scrub &amp;amp; SAUNA available 🌇🌇&lt;p&gt;🎾 Every Visit Is A Dream Come True &lt;p&gt;🎾 No doubt the BEST Oriental Relaxation in the area&lt;p&gt;&lt;p&gt;🎾🎾 HOT BUSTY ASIAN &amp;amp; LATINA GIRLS ROTATION 🎾🎾&lt;p&gt; 🌇🌇 TEL &lt;a&gt; 424-374-9751 &lt;/a&gt;🌇🌇&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt; </t>
+    <t xml:space="preserve">    🎾🍎🎾　　 ASIAN SPA-BEST IN TOWN 　　🎾🍎🎾 🔲🌇🔲&lt;a&gt; 　VIP&lt;/a&gt; SAUNA - &lt;a&gt;4 HAND SPECIAL&lt;/a&gt;🔲🌇🔲&lt;p&gt; 🌇　NEW SEXY LINE UP 　🌇&lt;p&gt;🎾&lt;a&gt; SERVING ALL LA AREA&lt;/a&gt; &lt;p&gt;🎾 Open Daily Late &lt;p&gt;🌇🌇 Hot Steam Towel &amp;amp; T-Shower Body Scrub &amp;amp; SAUNA available 🌇🌇&lt;p&gt;🎾 Every Visit Is A Dream Come True &lt;p&gt;🎾 No doubt the BEST Oriental Relaxation in the area&lt;p&gt;&lt;p&gt;🎾🎾 HOT BUSTY ASIAN &amp;amp; LATINA GIRLS ROTATION 🎾🎾&lt;p&gt; 🌇🌇 TEL &lt;a&gt; 424-374-9751 &lt;/a&gt;🌇🌇&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;  </t>
   </si>
   <si>
     <t>🌑🌑🌑🌑🌑 424-374-9751 🌸🍎🌑🌑🍎New Japanese Girls Tonight 🌸🍎 🌑🍎🌸 FREE PAMPERED SHOWER 🍎🌑🌑</t>
@@ -128,7 +128,7 @@
     <t>1216193 2338672 4096728 2138075615</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1801/12161935/23386726/409672838.jpg"/&gt; &lt;i&gt;&lt;font color="green"&gt;&lt;b&gt;▬▬▬💜🔲💚▬▬▬　Pinkull Spa: 213-807-5615 ▬▬▬💜🔲💚▬▬▬&lt;/b&gt;&lt;/font&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1801/12161935/23386726/409672838.jpg"/&gt;  &lt;font color="green"&gt; ▬▬▬💜🔲💚▬▬▬　Pinkull Spa: 213-807-5615 ▬▬▬💜🔲💚▬▬▬ &lt;/font&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>▂▃▊▊▊╲💜╱▊▊▊▃▂ 🍀🌺🍀  ▂▃▊▊▊╲Pinkull Spa╱▊▊▊▃▂ 🍀🌺🍀 ▂▃▊▊▊╲213-807-5615╱▊▊▊▃▂ 🍀🌺🍀 ▂▃▊▊▊╲💜╱▊▊▊▃▂</t>
@@ -179,7 +179,7 @@
     <t>3232391228 3233780840</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt;&lt;p&gt; &lt;b&gt;💗 DELUX THEARPY 💗&lt;p&gt; LATINA &amp;amp; WHITE STAFF&lt;p&gt; FULL BODY RELAXING TREATMENT &lt;p&gt; ☎️ &lt;a&gt;323-239-1228 / 323-378-0840&lt;/a&gt; LOCATION : FLORENCE AVE , 90201 &lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/p&gt;&lt;/ol&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt;&lt;p&gt;  💗 DELUX THEARPY 💗&lt;p&gt; LATINA &amp;amp; WHITE STAFF&lt;p&gt; FULL BODY RELAXING TREATMENT &lt;p&gt; ☎️ &lt;a&gt;323-239-1228 / 323-378-0840&lt;/a&gt; LOCATION : FLORENCE AVE , 90201 &lt;/p&gt;&lt;/p&gt;&lt;/p&gt; &lt;/p&gt;&lt;/ol&gt;&lt;/ol&gt;</t>
   </si>
   <si>
     <t>▂▃▊▊▊❌🔴❌🔴❌🔴❌🔴▂▃▊▊▊ SPECIAL $40 ▊▊▊▃❌🔴❌🔴❌🔴❌🔴▊▊▊ ❌╲LATINA &amp; WHITE STAFF ❌╱▊▊▊▃▂ ❌🔴❌🔴 ▂▃▊▊▊ ❌🔴❌🔴</t>
@@ -197,7 +197,7 @@
     <t>8185081766</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; Therapeutic Massage available with table shower Bodyscrub till MIDNIGHT !! Swedish Massage  And deep tissue massage Deep Tissue  OPEN 7 days Hot Stone Massage  Reflexology hands feet ears and cranium   &lt;a href="http://www.bodyscrubandmassage.com" target="_blank"&gt;www.bodyscrubandmassage.com&lt;/a&gt; (all includes BODY SCRUB)    1hour $60 90 min $80 2 hours. $120 Please call to obtain more information and to schedule your appointment today    3747 Cahuenga Blvd Studio City CA91604  (818)508-1766  Lankershim at Cahuenga Blvd, 91604</t>
+    <t xml:space="preserve">       Therapeutic Massage available with table shower Bodyscrub till MIDNIGHT !! Swedish Massage  And deep tissue massage Deep Tissue  OPEN 7 days Hot Stone Massage  Reflexology hands feet ears and cranium   &lt;a href="http://www.bodyscrubandmassage.com" target="_blank"&gt;www.bodyscrubandmassage.com&lt;/a&gt; (all includes BODY SCRUB)    1hour $60 90 min $80 2 hours. $120 Please call to obtain more information and to schedule your appointment today    3747 Cahuenga Blvd Studio City CA91604  (818)508-1766  Lankershim at Cahuenga Blvd, 91604</t>
   </si>
   <si>
     <t>1130</t>
@@ -221,7 +221,7 @@
     <t>My name is Allie, I'm the next door cutie, smart and in.n.o.ce.nt I love having fun,our time spent is never rushed and my pictures are recent and 100% real!!    Allie 213-712-9997 no texting pls..give me a call :).. friendly, safe, discreet and fun!</t>
   </si>
   <si>
-    <t>1200</t>
+    <t>230</t>
   </si>
   <si>
     <t>~ 🔥Hot🔥 Brunette eager to please and have a 💥GREAT💥 time!!</t>
@@ -236,7 +236,7 @@
     <t>6267225855 2138055662</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;Hey boys, I am Dora 23 yrs! I am 5'5", 97 lbs, with amazing measurement, 34D-23-35. CALL ONLY : 626-722-5855 Text Only : 213-805-5662&lt;/b&gt; </t>
+    <t xml:space="preserve">  Hey boys, I am Dora 23 yrs! I am 5'5", 97 lbs, with amazing measurement, 34D-23-35. CALL ONLY : 626-722-5855 Text Only : 213-805-5662  </t>
   </si>
   <si>
     <t>♞▊▊▊▊▊▊▊▊▊▊▊▊▊Asian ANYWHERE OUT TO YOU ▊▊▊▊▊▊▊▊▊▊▊▊▊▊▊ CALL ME NOW 626-722-5855 ▊▊▊▊▊▊▊</t>
@@ -266,7 +266,7 @@
     <t>6265949068 2138055662</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;Hello Gentlemen. &lt;u&gt;I'm Ella.&lt;/u&gt; Age : 22 Measurements : 32C-24-33 Height : 5'4" Weight : 100 lbs Call Only : 626-594-9068 Text Only : 213-805-5662&lt;/b&gt; </t>
+    <t xml:space="preserve">  Hello Gentlemen.  I'm Ella.  Age : 22 Measurements : 32C-24-33 Height : 5'4" Weight : 100 lbs Call Only : 626-594-9068 Text Only : 213-805-5662  </t>
   </si>
   <si>
     <t>100% Young★ 100% Sexy ★ petite ★ pretty ★beauty Asian★NEW GIRL★come to your place★★ 626-594-9068  ★</t>
@@ -296,7 +296,7 @@
     <t>7146787035</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;🎈 🎈 Hello Gentleman, (: 🎈 🎈 TIFFANY &amp;amp; Lisa, we are Here 2 Serve U 20 &amp;amp; 21 yr old, 34D-22-35 5'2" / 34C-23-35 100lb READY 4 SOME NAKED FUN, ARE YOU? CALL / TEXT 714-678-7035 PIT STOP 9050 SLAUSON PICO RIVERA 90660 **** SLAUSON AND ROSEMEAD - SAME PARKING LOT AS MARISCOS = 1 MILE WEST OF 605 ****&lt;/b&gt; </t>
+    <t xml:space="preserve">  🎈 🎈 Hello Gentleman, (: 🎈 🎈 TIFFANY &amp;amp; Lisa, we are Here 2 Serve U 20 &amp;amp; 21 yr old, 34D-22-35 5'2" / 34C-23-35 100lb READY 4 SOME NAKED FUN, ARE YOU? CALL / TEXT 714-678-7035 PIT STOP 9050 SLAUSON PICO RIVERA 90660 **** SLAUSON AND ROSEMEAD - SAME PARKING LOT AS MARISCOS = 1 MILE WEST OF 605 ****  </t>
   </si>
   <si>
     <t>😘 💋 （๏人 ๏）_ HOT ¥OUNG 😘💋 Nak1d * BODY 2 BODY*♥* Choose YOUR Hotties *♥*😘 💋 🎈 Actual Pics</t>
@@ -311,7 +311,7 @@
     <t>7025508635</t>
   </si>
   <si>
-    <t>Kimber! CMT!! Stress reliever &lt;b&gt;&lt;/b&gt; . 36 triple D’s, topless massage, European Japanese mix. 702-550-8635.</t>
+    <t>Kimber! CMT!! Stress reliever    . 36 triple D’s, topless massage, European Japanese mix. 702-550-8635.</t>
   </si>
   <si>
     <t>🎀 Sexy Blonde Bombshell ready for You 🎀</t>
@@ -374,7 +374,7 @@
     <t>3102574932</t>
   </si>
   <si>
-    <t xml:space="preserve">🌺🌸🌷 Come in and enjoy a genuine Chinese massage by profesional massage therapists 🌼 Nice, clean environment🌈. No gimmicks, no fake pictures 💐 Come in and relax...⭐️⭐️⭐️⭐️⭐️    Walk-ins Welcome. You may make an appointment &lt;b&gt;310.257.4932&lt;/b&gt; </t>
+    <t xml:space="preserve">🌺🌸🌷 Come in and enjoy a genuine Chinese massage by profesional massage therapists 🌼 Nice, clean environment🌈. No gimmicks, no fake pictures 💐 Come in and relax...⭐️⭐️⭐️⭐️⭐️    Walk-ins Welcome. You may make an appointment  310.257.4932  </t>
   </si>
   <si>
     <t>☘️☘️ Relax Massage ☘️☘️</t>
@@ -404,7 +404,7 @@
     <t>3102483886</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;font color="Red" face="Arial" size="6"&gt;GRAND OPENING &lt;p&gt; ❤ unforgettable massage❤ &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕&lt;font color="blue" face="Arial" size="5"&gt;&lt;i&gt; You deserve pamper yourself, we are the best massage in town, &lt;p&gt;we have young and pretty girl with high and quality technique. &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕&lt;font color="blue" face="Arial" size="5"&gt;&lt;i&gt; Come enjoy our private room, clean,soft music, magic touch. &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕&lt;font color="blue" face="Arial" size="5"&gt;&lt;i&gt; We do combination, hot oil,Swedish,deep tissue. &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕 &lt;font color="blue" face="Arial" size="5"&gt;&lt;i&gt; Our pretty and sweet masseuse waiting for you.&lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt; $50/60min || $40/30min&lt;p&gt;&lt;font color="Blue" face="Arial" size="6"&gt;☏ 310-248-3886 &lt;p&gt;&lt;font color="Red" face="Arial" size="5"&gt;Open 7 days:10:00am - 9:00pm &lt;p&gt;&lt;font color="blue" face="Arial" size="6"&gt;9540 Pico Blvd&lt;p&gt; Los Angeles CA 90035 &lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/font&gt; &lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/i&gt;&lt;/font&gt;&lt;/font&gt;&lt;/p&gt;&lt;/i&gt;&lt;/font&gt;&lt;/font&gt;&lt;/p&gt;&lt;/i&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/i&gt;&lt;/font&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;font color="Red" face="Arial" size="6"&gt;GRAND OPENING &lt;p&gt; ❤ unforgettable massage❤ &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕&lt;font color="blue" face="Arial" size="5"&gt;  You deserve pamper yourself, we are the best massage in town, &lt;p&gt;we have young and pretty girl with high and quality technique. &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕&lt;font color="blue" face="Arial" size="5"&gt;  Come enjoy our private room, clean,soft music, magic touch. &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕&lt;font color="blue" face="Arial" size="5"&gt;  We do combination, hot oil,Swedish,deep tissue. &lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt;💕 &lt;font color="blue" face="Arial" size="5"&gt;  Our pretty and sweet masseuse waiting for you.&lt;p&gt;&lt;font color="Red" face="Arial" size="6"&gt; $50/60min || $40/30min&lt;p&gt;&lt;font color="Blue" face="Arial" size="6"&gt;☏ 310-248-3886 &lt;p&gt;&lt;font color="Red" face="Arial" size="5"&gt;Open 7 days:10:00am - 9:00pm &lt;p&gt;&lt;font color="blue" face="Arial" size="6"&gt;9540 Pico Blvd&lt;p&gt; Los Angeles CA 90035 &lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/font&gt; &lt;/p&gt;&lt;/font&gt;&lt;/p&gt; &lt;/font&gt;&lt;/font&gt;&lt;/p&gt; &lt;/font&gt;&lt;/font&gt;&lt;/p&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt; &lt;/font&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>❤❤❤❤❤❤❤❤❤❤❤❤❤❤❤❤                310-248-3886               ❤❤❤❤❤❤❤❤❤❤❤❤❤❤❤❤</t>
@@ -485,7 +485,7 @@
     <t>3106034 5211946 3102319588</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;div style="padding:30px; background-image: url('http://dl4.glitter-graphics.net/pub/3106/3106034k21a2gpbeb.gif')"&gt; &lt;div style="background:url(http://dl.glitter-graphics.net/pub/966/966791jqique1gpi.gif); padding:20px; "&gt; &lt;center&gt;&lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/d.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/f.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/t.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/e.gif"/&gt;&lt;/a&gt; &lt;center&gt; &lt;img border="0" height="15" src="http://dl10.glitter-graphics.net/pub/619/619380a8c7yo5al4.gif" width="430"/&gt;&lt;img border="0" height="15" src="http://dl10.glitter-graphics.net/pub/619/619380a8c7yo5al4.gif" width="430"/&gt;&lt;img border="0" height="15" src="http://dl10.glitter-graphics.net/pub/619/619380a8c7yo5al4.gif" width="430"/&gt; &lt;img border="0" height="500" src="http://f0d.655.myftpupload.com/wp-content/uploads/2017/07/74d15884e2b9f4307f52119469b34959.gif" width="800"/&gt; &lt;p style="font-size:35px; font-weight:bold; text-shadow:5px 5px 10px red"&gt;Tel: 310-231-9588 &lt;/p&gt; &lt;center&gt; &lt;hr/&gt;&lt;font color="red" size="4"&gt;&lt;b&gt;Promotion &lt;hr/&gt;&lt;font color="blue" size="4"&gt;&lt;b&gt;&lt;i&gt;Full Body Massage&lt;/i&gt; 30 mins .......................$25 60 mins .......................$40 90 mins .......................$60 &lt;hr/&gt;&lt;font color="blue" size="4"&gt;&lt;b&gt;&lt;i&gt;Regular Foot Massage&lt;/i&gt; 60 mins .......................$25 (20 mins Head, Neck, Shoulder, Back +40 mins Foot) &lt;hr/&gt;&lt;font color="blue" size="4"&gt;&lt;b&gt;&lt;i&gt;Special Small Combo&lt;/i&gt; 60 mins .......................$30 (40 mins Head, Neck, Shoulder, Back +20 mins Foot) &lt;hr/&gt;&lt;font color="blue" size="4"&gt;&lt;b&gt;&lt;i&gt;Special Middle Combo&lt;/i&gt; 70 mins .......................$35 (50 mins Head, Neck, Shoulder, Back +20 mins Foot) &lt;hr/&gt;&lt;font color="blue" size="4"&gt;&lt;b&gt;&lt;i&gt;Speical Large Combo&lt;/i&gt; 90 mins .......................$45 (70 mins Head, Neck, Shoulder, Back +20 mins Foot) &lt;font color="red" size="4"&gt;Happy Hours for Christmas and Thanks'g Giving day! &lt;/font&gt; &lt;font color="red" size="4"&gt;$5 Discount! For any customer between 10:00 am to 4:00 pm, from Monday to Thursday, &lt;/font&gt; &lt;font color="red" size="4"&gt;Valid from Oct. 11, 2017 to Dec. 31, 2017. &lt;/font&gt; 💮 Cozy &amp;amp; Comfortable environment 💮 YOUR #1 TOP CHOICE 💮 Have a good time with our Amazing Service &lt;font color="red" size="4"&gt;Hours: 10:00 am-10:00 pm&lt;/font&gt; &lt;font color="red" size="4"&gt;Tel: 310-231-9588 &lt;/font&gt; &lt;font color="red" size="4"&gt;Location: 11661 Santa Monica BLVD, Los Angeles, CA 90025 &lt;/font&gt; &lt;/b&gt;&lt;/font&gt; &lt;img border="0" height="500" src="http://f0d.655.myftpupload.com/wp-content/uploads/2017/08/mapla01.gif" width="950"/&gt; &lt;h2 style=" color:#09F; font-size:32px;"&gt;Address: 11661 Santa Monica BLVD, Los Angeles, CA 90025 &lt;/h2&gt; &lt;h2 style="color:#f00; font-size:32px;"&gt;Call: 310-231-9588 &lt;/h2&gt; &lt;h2 style="color:#f00; font-size:32px;"&gt; Open 7 days, 10:00 am-10:00 pm &lt;/h2&gt; &lt;img border="0" height="500" src="http://f0d.655.myftpupload.com/wp-content/uploads/2017/07/e031c38978b6c3ed06a0f579c37e8bbb.jpg" width="800"/&gt; &lt;/b&gt;&lt;/font&gt;&lt;/b&gt;&lt;/font&gt;&lt;/b&gt;&lt;/font&gt;&lt;/b&gt;&lt;/font&gt;&lt;/b&gt;&lt;/font&gt;&lt;/center&gt; &lt;/center&gt;&lt;/center&gt;&lt;/div&gt;&lt;/div&gt;</t>
+    <t xml:space="preserve"> &lt;div style="padding:30px; background-image: url('http://dl4.glitter-graphics.net/pub/3106/3106034k21a2gpbeb.gif')"&gt; &lt;div style="background:url(http://dl.glitter-graphics.net/pub/966/966791jqique1gpi.gif); padding:20px; "&gt; &lt;center&gt;&lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/d.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/f.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/t.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/flower/e.gif"/&gt;&lt;/a&gt; &lt;center&gt; &lt;img border="0" height="15" src="http://dl10.glitter-graphics.net/pub/619/619380a8c7yo5al4.gif" width="430"/&gt;&lt;img border="0" height="15" src="http://dl10.glitter-graphics.net/pub/619/619380a8c7yo5al4.gif" width="430"/&gt;&lt;img border="0" height="15" src="http://dl10.glitter-graphics.net/pub/619/619380a8c7yo5al4.gif" width="430"/&gt; &lt;img border="0" height="500" src="http://f0d.655.myftpupload.com/wp-content/uploads/2017/07/74d15884e2b9f4307f52119469b34959.gif" width="800"/&gt; &lt;p style="font-size:35px; font-weight:bold; text-shadow:5px 5px 10px red"&gt;Tel: 310-231-9588 &lt;/p&gt; &lt;center&gt; &lt;hr/&gt;&lt;font color="red" size="4"&gt; Promotion &lt;hr/&gt;&lt;font color="blue" size="4"&gt;  Full Body Massage  30 mins .......................$25 60 mins .......................$40 90 mins .......................$60 &lt;hr/&gt;&lt;font color="blue" size="4"&gt;  Regular Foot Massage  60 mins .......................$25 (20 mins Head, Neck, Shoulder, Back +40 mins Foot) &lt;hr/&gt;&lt;font color="blue" size="4"&gt;  Special Small Combo  60 mins .......................$30 (40 mins Head, Neck, Shoulder, Back +20 mins Foot) &lt;hr/&gt;&lt;font color="blue" size="4"&gt;  Special Middle Combo  70 mins .......................$35 (50 mins Head, Neck, Shoulder, Back +20 mins Foot) &lt;hr/&gt;&lt;font color="blue" size="4"&gt;  Speical Large Combo  90 mins .......................$45 (70 mins Head, Neck, Shoulder, Back +20 mins Foot) &lt;font color="red" size="4"&gt;Happy Hours for Christmas and Thanks'g Giving day! &lt;/font&gt; &lt;font color="red" size="4"&gt;$5 Discount! For any customer between 10:00 am to 4:00 pm, from Monday to Thursday, &lt;/font&gt; &lt;font color="red" size="4"&gt;Valid from Oct. 11, 2017 to Dec. 31, 2017. &lt;/font&gt; 💮 Cozy &amp;amp; Comfortable environment 💮 YOUR #1 TOP CHOICE 💮 Have a good time with our Amazing Service &lt;font color="red" size="4"&gt;Hours: 10:00 am-10:00 pm&lt;/font&gt; &lt;font color="red" size="4"&gt;Tel: 310-231-9588 &lt;/font&gt; &lt;font color="red" size="4"&gt;Location: 11661 Santa Monica BLVD, Los Angeles, CA 90025 &lt;/font&gt;  &lt;/font&gt; &lt;img border="0" height="500" src="http://f0d.655.myftpupload.com/wp-content/uploads/2017/08/mapla01.gif" width="950"/&gt; &lt;h2 style=" color:#09F; font-size:32px;"&gt;Address: 11661 Santa Monica BLVD, Los Angeles, CA 90025 &lt;/h2&gt; &lt;h2 style="color:#f00; font-size:32px;"&gt;Call: 310-231-9588 &lt;/h2&gt; &lt;h2 style="color:#f00; font-size:32px;"&gt; Open 7 days, 10:00 am-10:00 pm &lt;/h2&gt; &lt;img border="0" height="500" src="http://f0d.655.myftpupload.com/wp-content/uploads/2017/07/e031c38978b6c3ed06a0f579c37e8bbb.jpg" width="800"/&gt;  &lt;/font&gt; &lt;/font&gt; &lt;/font&gt; &lt;/font&gt; &lt;/font&gt;&lt;/center&gt; &lt;/center&gt;&lt;/center&gt;&lt;/div&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>🚺🚺🚺🚺🚺💫💫💫💫💫$5 for happy hours from now 🚺🚺🚺🚺 💫💫💫💫💫Call: 310-231-9588</t>
@@ -500,7 +500,7 @@
     <t>6264608333</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;/b&gt; Call now &lt;u&gt;&lt;b&gt;626-460-8333&lt;/b&gt;&lt;/u&gt;   &lt;b&gt;754 N Lake Ave Pasadena&lt;/b&gt;    ✶ Very Large Spa - 7 Massage Rooms!  ✶ Never Rushed  ✶ Customer ALWAYS gets complete time they paid for  ✶ We have full-time manager  ✶ Girls never Interrupt massage  ✶ Girls don’t answer phone during massage  ✶ Girls don’t come out of room and interrupt massage  ✶ We are Open Early 9am and Open late  ✶ Many Repeat Customers!!  ✶ You Can Choose the Girl  ✶ No Old Ladies Here  ✶ We Just remodel on September 1st  ✶ We added more rooms because so many customers!!  ✶ Very Clean Upscale Facilities     &lt;b&gt;We are Close By:&lt;/b&gt;   ✶ 5 Minutes from Altadena  ✶ 10 Minutes from La Canada  ✶ 15 Minutes from Burbank  ✶ 12 Minutes from Glendale  ✶ 12 Minutes from Sierra Madre  ✶ 12 Minutes from Alhambra  ✶ 15 Minutes from San Marino  ✶ 15 Minutes from Arcadia  ✶ 15 Minutes from La Crescenta  ✶ 2 Minutes from Lake Ave Exit 210</t>
+    <t xml:space="preserve">    Call now   626-460-8333      754 N Lake Ave Pasadena     ✶ Very Large Spa - 7 Massage Rooms!  ✶ Never Rushed  ✶ Customer ALWAYS gets complete time they paid for  ✶ We have full-time manager  ✶ Girls never Interrupt massage  ✶ Girls don’t answer phone during massage  ✶ Girls don’t come out of room and interrupt massage  ✶ We are Open Early 9am and Open late  ✶ Many Repeat Customers!!  ✶ You Can Choose the Girl  ✶ No Old Ladies Here  ✶ We Just remodel on September 1st  ✶ We added more rooms because so many customers!!  ✶ Very Clean Upscale Facilities      We are Close By:    ✶ 5 Minutes from Altadena  ✶ 10 Minutes from La Canada  ✶ 15 Minutes from Burbank  ✶ 12 Minutes from Glendale  ✶ 12 Minutes from Sierra Madre  ✶ 12 Minutes from Alhambra  ✶ 15 Minutes from San Marino  ✶ 15 Minutes from Arcadia  ✶ 15 Minutes from La Crescenta  ✶ 2 Minutes from Lake Ave Exit 210</t>
   </si>
   <si>
     <t>✶ ✶ ✶ SIX CUTE ASIANS  Everyday ✶ ✶ ✶ LARGEST SPA  in Pasadena ✶ SEVEN  MASSAGE  Rooms ✶ Open Late</t>
@@ -515,7 +515,7 @@
     <t>Downtown, Los Angeles, ☑️Whittier/Santa Fe Spring/ Pico Rivera</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;p&gt;&lt;b&gt;💝💝💝 ACE SPA 💝💝💝(OLD EURO TOUCH) - ALL NEW GIRLS&lt;p&gt; &lt;p&gt; Hey, We are All BEAUTIFUL SEXY YOUNG LATINA &amp;amp; ASIAN Girls&lt;p&gt; 💳💳💳 We Accept All Major Credit Cards 💳💳💳&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/p&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;p&gt; 💝💝💝 ACE SPA 💝💝💝(OLD EURO TOUCH) - ALL NEW GIRLS&lt;p&gt; &lt;p&gt; Hey, We are All BEAUTIFUL SEXY YOUNG LATINA &amp;amp; ASIAN Girls&lt;p&gt; 💳💳💳 We Accept All Major Credit Cards 💳💳💳&lt;/p&gt;&lt;/p&gt;&lt;/p&gt; &lt;/p&gt; </t>
   </si>
   <si>
     <t>❎ACE SPA❎❎❎❎❎❎❎❎❎❎❎❎❎░░░░░░  BEAUTIFUL YOUNG LATINA &amp; ASIAN☎️562-479-9835☎️ ░░░░░❎❎❎❎❎❎❎❎❎❎❎❎</t>
@@ -596,7 +596,7 @@
     <t>3232468991</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;a&gt;NO NEED TO LOOK ANY FURTHER! ONE OF BP'S FINEST ASIAN!&lt;/a&gt;&lt;/b&gt;    &lt;u&gt;Gorgeous &amp;amp; Friendly Korean with an hourglass figure &amp;amp; a Great Rack! Outgoing, Friendly, Funny, &amp;amp; Sweet &lt;/u&gt;  &lt;b&gt;&lt;a&gt;THE BEST OF THE BEST!&lt;/a&gt;&lt;/b&gt;    &lt;a&gt;~INCREDIBLE LIPS&lt;/a&gt; ~ &lt;u&gt;100% TRULY Amazing EXPERIENCE!~&lt;/u&gt;    &lt;b&gt;NEVER RUSHED! WILL EXCEED ALL YOUR EXPECTATIONS&lt;/b&gt;    &lt;b&gt;&lt;u&gt;Glendal, Burbank, Downtown &amp;amp; ANYWHERE in LA&lt;/u&gt; &lt;a&gt;Phone: 323-246-8991 &lt;/a&gt; &lt;/b&gt;  &lt;b&gt;&lt;i&gt;OpenMind &amp;amp; MORE&lt;/i&gt;&lt;/b&gt;   </t>
+    <t xml:space="preserve">  &lt;a&gt;NO NEED TO LOOK ANY FURTHER! ONE OF BP'S FINEST ASIAN!&lt;/a&gt;      Gorgeous &amp;amp; Friendly Korean with an hourglass figure &amp;amp; a Great Rack! Outgoing, Friendly, Funny, &amp;amp; Sweet     &lt;a&gt;THE BEST OF THE BEST!&lt;/a&gt;     &lt;a&gt;~INCREDIBLE LIPS&lt;/a&gt; ~  100% TRULY Amazing EXPERIENCE!~      NEVER RUSHED! WILL EXCEED ALL YOUR EXPECTATIONS       Glendal, Burbank, Downtown &amp;amp; ANYWHERE in LA  &lt;a&gt;Phone: 323-246-8991 &lt;/a&gt;      OpenMind &amp;amp; MORE     </t>
   </si>
   <si>
     <t>📒📒📒📒📒 KOREAN, JAPANESE, LATINA 📒📒📒📒📒  3 Babes New Here 📒📒📒📒📒 Open Late 📒📒📒📒📒 Real Fun 📒📒📒📒📒 - 20</t>
@@ -674,7 +674,7 @@
     <t>Hey Guys! My name is Merry.    As an Asian beauty,I would very much enjoy getting to show you a good time here.    My name is Ella. I am 21 years-old Asian girl, 34D-23-34 with 5'0" and 101 lbs.    you will never forget!    100% real pictures, I'm even better in person!    Please call me to make an appointment.    Text Only : 626-346-8168</t>
   </si>
   <si>
-    <t>1220</t>
+    <t>221</t>
   </si>
   <si>
     <t>NEW ARRIVED\\\\\\\\\ Open-minded \\\\\\\\\\\Asian Girl\\\\\\\\\\\\Outcall Only 626-346-8168</t>
@@ -701,6 +701,9 @@
     <t>💋 Judy 💋  💋 23 YRS, 5'1" 101LBS 34E BUSTY SEXY BODY  💋 I am Super Sexy Malaysian girl.  💋 I am EVERY man Dream Girls.  💋 I have curvaceous body and natural face, open-minded, warm, friendly.    ♡•••►CALL ME NOW◄•••♡    ☎ Call Only : 626-246-6700 ☎</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>***** Outcall Only Call Me Now 626-246-6700 *****</t>
   </si>
   <si>
@@ -713,7 +716,7 @@
     <t>3109993963 3103289777</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;font color="fuchsia"&gt;&lt;font size="5"&gt;&lt;big&gt;&lt;center&gt;Exactly What you have been Looking For: Come and relax with her delicious Massage Today!&lt;/center&gt;&lt;/big&gt;&lt;/font&gt; &lt;font color="red"&gt;&lt;font size="5"&gt;* Pretty, Sweet &amp;amp; Lovely Asian Girls are ready to serve &lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="5"&gt;* Providing Excellent Therapeutic Massage Experience With Natural Relaxation! &lt;font color="olive"&gt;&lt;font size="5"&gt;Satisfaction Guaranteed! &lt;/font&gt; &lt;font color="red"&gt;&lt;font size="5"&gt;Full body massage: $40/60min $60/90mins&lt;/font&gt; &lt;font size="5"&gt;&lt;font color="fuchsia"&gt; CALL:310-999-3963 (Lawndale)(FREE TABLE SHOWER)&lt;/font&gt; &lt;font size="5"&gt;&lt;font color="olive"&gt;&lt;u&gt;Telephone:310-328-9777 (Torrance)(FREE SHOWER)&lt;/u&gt;&lt;/font&gt; &lt;font size="5"&gt;&lt;font color="purple"&gt; 4501 Artesia Blvd.,Lawndale,CA 90260 ★(FREE TABLE SHOWER) &lt;/font&gt; &lt;font size="5"&gt;&lt;font color="blue"&gt;1880 W. Carson St. #F Torrance, CA 90501 ★(FREE SHOWER) &lt;/font&gt; &lt;font color="olive"&gt;&lt;font size="5"&gt;Open 7 days from 10:00AM-10:00PM &lt;/font&gt; &lt;font color="fuchsia"&gt;&lt;font size="5"&gt;Walk In is welcome, reservation is more than welcome. &lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;font color="fuchsia"&gt;&lt;font size="5"&gt;&lt;big&gt;&lt;center&gt;Exactly What you have been Looking For: Come and relax with her delicious Massage Today!&lt;/center&gt;&lt;/big&gt;&lt;/font&gt; &lt;font color="red"&gt;&lt;font size="5"&gt;* Pretty, Sweet &amp;amp; Lovely Asian Girls are ready to serve &lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="5"&gt;* Providing Excellent Therapeutic Massage Experience With Natural Relaxation! &lt;font color="olive"&gt;&lt;font size="5"&gt;Satisfaction Guaranteed! &lt;/font&gt; &lt;font color="red"&gt;&lt;font size="5"&gt;Full body massage: $40/60min $60/90mins&lt;/font&gt; &lt;font size="5"&gt;&lt;font color="fuchsia"&gt; CALL:310-999-3963 (Lawndale)(FREE TABLE SHOWER)&lt;/font&gt; &lt;font size="5"&gt;&lt;font color="olive"&gt; Telephone:310-328-9777 (Torrance)(FREE SHOWER) &lt;/font&gt; &lt;font size="5"&gt;&lt;font color="purple"&gt; 4501 Artesia Blvd.,Lawndale,CA 90260 ★(FREE TABLE SHOWER) &lt;/font&gt; &lt;font size="5"&gt;&lt;font color="blue"&gt;1880 W. Carson St. #F Torrance, CA 90501 ★(FREE SHOWER) &lt;/font&gt; &lt;font color="olive"&gt;&lt;font size="5"&gt;Open 7 days from 10:00AM-10:00PM &lt;/font&gt; &lt;font color="fuchsia"&gt;&lt;font size="5"&gt;Walk In is welcome, reservation is more than welcome. &lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; </t>
   </si>
   <si>
     <t>🔵🔵🔵 ▃⎠⎝ 🍒▃🍒 — NEW LINE UP ! ▃ 310-999-3963 🔵🔵🔵 Your #1 CHOICE  ⎠⎝ 💎🍒Energy Massage🍒 ⎠⎝ 💎</t>
@@ -743,7 +746,7 @@
     <t>2133651518 1183099 1183100</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;a&gt; 🍎==* APPLE SPA *==🍎 🌻 SPECIAL PRICE &lt;a&gt;213-365-1518 —🔲 &lt;/a&gt; 🌹 11AM TO 11PM &lt;a href="https://maps.google.com/maps?q=+3824+Wilshire+Blvd+Los+Angeles,+CA+90010+%E2%80%8E+&amp;amp;hl=en&amp;amp;ie=UTF8&amp;amp;ll=34.061548,-118.309965&amp;amp;spn=0.046503,0.090895&amp;amp;sll=34.06169,-118.31003&amp;amp;sspn=0.005848,0.011362&amp;amp;hnear=3824+Wilshire+Blvd,+Los+Angeles,+California+90010&amp;amp;t=m&amp;amp;z=14" target="_blank"&gt;🔲—— GET MAP ——🔲&lt;/a&gt; &lt;/a&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;a&gt; 🍎==* APPLE SPA *==🍎 🌻 SPECIAL PRICE &lt;a&gt;213-365-1518 —🔲 &lt;/a&gt; 🌹 11AM TO 11PM &lt;a href="https://maps.google.com/maps?q=+3824+Wilshire+Blvd+Los+Angeles,+CA+90010+%E2%80%8E+&amp;amp;hl=en&amp;amp;ie=UTF8&amp;amp;ll=34.061548,-118.309965&amp;amp;spn=0.046503,0.090895&amp;amp;sll=34.06169,-118.31003&amp;amp;sspn=0.005848,0.011362&amp;amp;hnear=3824+Wilshire+Blvd,+Los+Angeles,+California+90010&amp;amp;t=m&amp;amp;z=14" target="_blank"&gt;🔲—— GET MAP ——🔲&lt;/a&gt; &lt;/a&gt; </t>
   </si>
   <si>
     <t>🍎🍎🍎✿Amazing ✿ Korean ✿▃▃▃▃▃▃▃▃▃▃▃▃✿ Japanese ✿▃▃▃▃▃▃▃▃▃▃▃▃✿Sweet NICE Girls ✿▃▃▃▃▃▃▃▃▃▃▃▃ 🍎🍎🍎</t>
@@ -788,7 +791,7 @@
     <t>134545058</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;font size="5"&gt;&lt;font color="fuchsia"&gt;&lt;b&gt;☎ (213) 858-1898 👯👯 Young &amp;amp; Pretty Asian Masseuses 👯👯 &lt;/b&gt;&lt;/font&gt; &lt;font color="red"&gt;🌟 If you are looking for a high quality massage service, 🌟 let our pretty masseuses relive your daily stress. &lt;/font&gt; &lt;font color="teal"&gt;🌟 We will never rush and make sure that you feel comfortable. ★OPEN LATE &lt;font color="green"&gt;❤❤ ♡♡♡ Sweet Smile ☆ Smooth Skin ☆ Magic Hands ♡♡♡ ❤❤ &lt;/font&gt; &lt;font color="red"&gt;☎ (213) 858-1898 2500 W 8th St, Los Angeles, CA 90057 &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;</t>
+    <t xml:space="preserve"> &lt;font size="5"&gt;&lt;font color="fuchsia"&gt; ☎ (213) 858-1898 👯👯 Young &amp;amp; Pretty Asian Masseuses 👯👯  &lt;/font&gt; &lt;font color="red"&gt;🌟 If you are looking for a high quality massage service, 🌟 let our pretty masseuses relive your daily stress. &lt;/font&gt; &lt;font color="teal"&gt;🌟 We will never rush and make sure that you feel comfortable. ★OPEN LATE &lt;font color="green"&gt;❤❤ ♡♡♡ Sweet Smile ☆ Smooth Skin ☆ Magic Hands ♡♡♡ ❤❤ &lt;/font&gt; &lt;font color="red"&gt;☎ (213) 858-1898 2500 W 8th St, Los Angeles, CA 90057 &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;</t>
   </si>
   <si>
     <t>🔴❌🔴▃▃ NEW ❄️ YOUNG GIRLS ▃▃ ❌🔴❌🔴❌🔴❌🔴❌🔴▃ sweet ❌🔴❌🔴❌🔴❌🔴❌🔴▃▃ sexy ❌🔴❌🔴❌🔴(213) 858-1898</t>
@@ -812,7 +815,7 @@
     <t>2835331 1183579</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="100" src="http://dl.glitter-graphics.net/pub/2835/2835331gfe8e6oy37.gif" width="100"/&gt;&lt;/a&gt; &lt;font color="red" face="Palatino Linotype" size="6"&gt;[[ TOP Service ]]•==•[[ Royal Treatment ]] &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/x.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/x.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/g.gif"/&gt;&lt;/a&gt; &lt;font color="red" size="5"&gt;The Ultimate Satisfaction &amp;amp; Relaxation &lt;font color="green"&gt;You will experience a totally different relaxed and energetic touch &lt;font color="navy" size="5"&gt;&lt;b&gt;&lt;a href="http://maps.google.com/maps?q=10719+Inglewood+Ave+Lennox+CA+90304&amp;amp;hl=en&amp;amp;ll=33.936951,-118.357987&amp;amp;spn=0.016734,0.038409&amp;amp;sll=37.0625,-95.677068&amp;amp;sspn=32.748002,78.662109&amp;amp;hnear=10719+Inglewood+Ave,+Lennox,+California+90304&amp;amp;t=m&amp;amp;z=15" target="_blank"&gt;&lt;b&gt;MAP : CLICK HERE [10719 Inglewood Ave - Lennox CA 90304 ]&lt;/b&gt;&lt;/a&gt; &lt;font color="purple" size="4"&gt;[ Close to &lt;b&gt;LAX&lt;/b&gt; ] &lt;font color="olive" size="4"&gt;Lennox Ave + Inglewood Ave [ Inside Lazaro Center ] &lt;font color="blue" size="6"&gt; 310 - 412 - 5075 &lt;font color="olive" size="4"&gt;Open 10am-9pm/ 7 days a week &lt;font color="red"&gt;* Meet Asian &amp;amp; Latina Staffs &lt;font color="teal"&gt;Don't miss this opportunity&lt;/font&gt;&lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="100" src="http://dl.glitter-graphics.net/pub/2835/2835331gfe8e6oy37.gif" width="100"/&gt;&lt;/a&gt; &lt;font color="red" face="Palatino Linotype" size="6"&gt;[[ TOP Service ]]•==•[[ Royal Treatment ]] &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/x.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/x.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/g.gif"/&gt;&lt;/a&gt; &lt;font color="red" size="5"&gt;The Ultimate Satisfaction &amp;amp; Relaxation &lt;font color="green"&gt;You will experience a totally different relaxed and energetic touch &lt;font color="navy" size="5"&gt; &lt;a href="http://maps.google.com/maps?q=10719+Inglewood+Ave+Lennox+CA+90304&amp;amp;hl=en&amp;amp;ll=33.936951,-118.357987&amp;amp;spn=0.016734,0.038409&amp;amp;sll=37.0625,-95.677068&amp;amp;sspn=32.748002,78.662109&amp;amp;hnear=10719+Inglewood+Ave,+Lennox,+California+90304&amp;amp;t=m&amp;amp;z=15" target="_blank"&gt; MAP : CLICK HERE [10719 Inglewood Ave - Lennox CA 90304 ] &lt;/a&gt; &lt;font color="purple" size="4"&gt;[ Close to  LAX  ] &lt;font color="olive" size="4"&gt;Lennox Ave + Inglewood Ave [ Inside Lazaro Center ] &lt;font color="blue" size="6"&gt; 310 - 412 - 5075 &lt;font color="olive" size="4"&gt;Open 10am-9pm/ 7 days a week &lt;font color="red"&gt;* Meet Asian &amp;amp; Latina Staffs &lt;font color="teal"&gt;Don't miss this opportunity&lt;/font&gt;&lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>🌈🌈🌈 🌈🌈🌈ⓦⓞⓝ SPA 👉▬▬🌈💦🐝▬🐝✅CLICK HERE 💨💨 ►🌈💦🐝►💨💨— ►►🚗💨 5 MIN. FROM ✈ LAX</t>
@@ -830,10 +833,10 @@
     <t>5629863608</t>
   </si>
   <si>
-    <t>Sexy Latina Therapists   &lt;b&gt; 9:00am-3:00am &lt;a href="tel:562-986-3608" target="_blank"&gt;+1 (562)986-3608&lt;/a&gt; Montebello, Pico Rivera ,Westcovina, San Gabriel &lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>1221</t>
+    <t xml:space="preserve">Sexy Latina Therapists     9:00am-3:00am &lt;a href="tel:562-986-3608" target="_blank"&gt;+1 (562)986-3608&lt;/a&gt; Montebello, Pico Rivera ,Westcovina, San Gabriel  </t>
+  </si>
+  <si>
+    <t>129</t>
   </si>
   <si>
     <t>💜💜💕 Munecas de la Noche 💜💜Sensual Relaxacion 💕💜💜</t>
@@ -878,7 +881,7 @@
     <t>1372023 2466502 4135100 3235347734 3233780152</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510033.jpg"/&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510035.jpg"/&gt; &lt;i&gt;&lt;a&gt; ❤️💚❤️💚&lt;/a&gt;————— &lt;b&gt;Llame para una cita: 323-534-7734 // 323-378-0152&lt;/b&gt;—————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt;&lt;b&gt;Latina nueva y dulce / New Latina Staff Everyday&lt;/b&gt;&lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt; &lt;b&gt;🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete&lt;/b&gt; &lt;b&gt;🌺 TENEMOS APARCAMIENTO / Spacious parking space&lt;/b&gt; &lt;b&gt;🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands &lt;/b&gt; &lt;b&gt;🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress&lt;/b&gt; &lt;a&gt;&lt;b&gt;————— 💚 1O am ~ 8 pm —————&lt;/b&gt;&lt;/a&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510033.jpg"/&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510035.jpg"/&gt;  &lt;a&gt; ❤️💚❤️💚&lt;/a&gt;—————  Llame para una cita: 323-534-7734 // 323-378-0152 —————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt; Latina nueva y dulce / New Latina Staff Everyday &lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt;  🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete   🌺 TENEMOS APARCAMIENTO / Spacious parking space   🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands    🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress  &lt;a&gt; ————— 💚 1O am ~ 8 pm ————— &lt;/a&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>🔲 ❤️💚 _Clean &amp; Cozy_❤️💚 🕋🔲🕋🔲🕋🔲🕋🔲🕋🔲🕋🔲🕋🔲🕋🔲🕋⫷⫷⫷ till 12:00 am TODAY ☛☛ 323-534-7734 ⫸⫸⫸🕋🔲🕋🔲🕋🔲🕋🔲🕋🔲</t>
@@ -905,7 +908,7 @@
     <t>Downtown, K &amp; DOWN TOWN 🌅⬛🌅⬛🌅—FREE PARKING —🌅⬛🌅⬛🌅, Los Angeles</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt; &lt;b&gt;🔴🌴🔴🌴&lt;a&gt; 　BODY CENTRE SPA 　&lt;/a&gt;🔴🌴🔴🌴&lt;p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;  🔴🌴🔴🌴&lt;a&gt; 　BODY CENTRE SPA 　&lt;/a&gt;🔴🌴🔴🌴&lt;p&gt;&lt;/p&gt; &lt;/ol&gt;</t>
   </si>
   <si>
     <t>🌄⬛🌄⬛🌆⬛🌄⬛🌄⬛🌄▃▃▃▃DOWN &amp; KOREA TOWN &amp; Wilshire AREA ▃▃▃▃💚⬛💚⬛💚▃▃▃▃ 101 &amp;110&amp; 10 HWY FROM 5MIN ▃▃🌄⬛🌄⬛🌆⬛🌄⬛</t>
@@ -941,7 +944,7 @@
     <t>3105675834</t>
   </si>
   <si>
-    <t xml:space="preserve">🌟 &lt;b&gt;SWEET, CURVY &amp;amp; EXOTIC&lt;/b&gt; 🌟    &lt;b&gt;&lt;a&gt;NO NEED TO LOOK ANY FURTHER! ONE OF BP'S FINEST ASIAN!&lt;/a&gt;&lt;/b&gt;    &lt;u&gt;Gorgeous &amp;amp; Friendly Korean with an hourglass ⏳ figure &amp;amp; a Great Rack! Outgoing, Friendly, Funny, &amp;amp; Sweet &lt;/u&gt;  &lt;b&gt;&lt;a&gt;BEST OF THE BEST!&lt;/a&gt;&lt;/b&gt;    &lt;a&gt;~INCREDIBLE LIPS&lt;/a&gt; 💋~ &lt;u&gt;💯% TRULY UNFORGETTABLE EXPERIENCE!~&lt;/u&gt;    &lt;b&gt;NEVER RUSHED! WILL EXCEED ALL YOUR EXPECTATIONS&lt;/b&gt;    &lt;b&gt;✔*24/7 &lt;u&gt;Guaranteed Fun!&lt;/u&gt; ✨&lt;a&gt;Phone: 310-567-5834 (Call or Text)&lt;/a&gt; &lt;/b&gt;  &lt;b&gt;&lt;i&gt;ANYWHERE IN LA!!!&lt;/i&gt;&lt;/b&gt;   </t>
+    <t xml:space="preserve">🌟  SWEET, CURVY &amp;amp; EXOTIC  🌟     &lt;a&gt;NO NEED TO LOOK ANY FURTHER! ONE OF BP'S FINEST ASIAN!&lt;/a&gt;      Gorgeous &amp;amp; Friendly Korean with an hourglass ⏳ figure &amp;amp; a Great Rack! Outgoing, Friendly, Funny, &amp;amp; Sweet     &lt;a&gt;BEST OF THE BEST!&lt;/a&gt;     &lt;a&gt;~INCREDIBLE LIPS&lt;/a&gt; 💋~  💯% TRULY UNFORGETTABLE EXPERIENCE!~      NEVER RUSHED! WILL EXCEED ALL YOUR EXPECTATIONS      ✔*24/7  Guaranteed Fun!  ✨&lt;a&gt;Phone: 310-567-5834 (Call or Text)&lt;/a&gt;      ANYWHERE IN LA!!!     </t>
   </si>
   <si>
     <t>1229</t>
@@ -959,7 +962,7 @@
     <t>2135597675</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;i&gt; &lt;a&gt;call: 213-559-7675&lt;/a&gt; &lt;ul&gt; &lt;li&gt;Extra Body-slide &lt;li&gt;Hawaii Shower &lt;li&gt;TATAMI Room &lt;/li&gt;&lt;/li&gt;&lt;/li&gt;&lt;/ul&gt; 5'2" ALL NATURAL, Real Nice &amp;amp; EXOTIC sensation &lt;/i&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">    &lt;a&gt;call: 213-559-7675&lt;/a&gt; &lt;ul&gt; &lt;li&gt;Extra Body-slide &lt;li&gt;Hawaii Shower &lt;li&gt;TATAMI Room &lt;/li&gt;&lt;/li&gt;&lt;/li&gt;&lt;/ul&gt; 5'2" ALL NATURAL, Real Nice &amp;amp; EXOTIC sensation   </t>
   </si>
   <si>
     <t>💚◼💚◼💚◼💚———🔞◼🔲🔞 NEW SENSE 💚◼💚◼💚◼💚◼💚 NEW SEXY ASIAN  🔞◼🔲🔞———💚◼💚◼💚◼💚</t>
@@ -989,7 +992,7 @@
     <t>2138412262</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;a&gt;🔲🔲💠🔲🔲➖▐ NEW LAX ACU▐ ➖🔲🔲💠🔲🔲&lt;/a&gt;&lt;p&gt; 💞ASIAN &amp;amp; LATINA &amp;amp; WHITE💞 &lt;p&gt; INTERNATIONAL girls will treat you like a king with hot and sexy body&lt;p&gt;❥ Clean and Cozy: Everyone/everything is new&lt;p&gt; 💠——— 213-841-2262 ———💠&lt;p&gt;&lt;a&gt; ★——We Rotate Our Staff Everyday——★ ★——Beautiful and Attractive ladies everyday !——★ &lt;/a&gt;&lt;p&gt;　　OPEN :10:00Am To 10:00Pm&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;a&gt;🔲🔲💠🔲🔲➖▐ NEW LAX ACU▐ ➖🔲🔲💠🔲🔲&lt;/a&gt;&lt;p&gt; 💞ASIAN &amp;amp; LATINA &amp;amp; WHITE💞 &lt;p&gt; INTERNATIONAL girls will treat you like a king with hot and sexy body&lt;p&gt;❥ Clean and Cozy: Everyone/everything is new&lt;p&gt; 💠——— 213-841-2262 ———💠&lt;p&gt;&lt;a&gt; ★——We Rotate Our Staff Everyday——★ ★——Beautiful and Attractive ladies everyday !——★ &lt;/a&gt;&lt;p&gt;　　OPEN :10:00Am To 10:00Pm&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt; </t>
   </si>
   <si>
     <t>💖▃NEW GIRLS  ▃ 💖EXOTIC GIRL💖▃▃▃▃❶▃▃▃▃ 💖SEXY💖▃▃▃▃❶▃▃▃▃ 💖4 You💖▃▃▃▃❶▃▃▃▃ 💖Asian &amp; Latina 💖▃▃▃▃❶▃▃▃▃ 💖✨</t>
@@ -1058,7 +1061,7 @@
     <t>Downtown, East LA 🔴🔴 Off 710 Fwy 🔴🔴 60 Fwy 🔴🔴🔴🔴🔴🔴', Los Angeles</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;ol&gt; 💟💟▬▬❗️ &lt;a&gt;NEW MANAGER SPECIAL &lt;/a&gt;❗️ ▬▬💟💟&lt;/ol&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;ol&gt; 💟💟▬▬❗️ &lt;a&gt;NEW MANAGER SPECIAL &lt;/a&gt;❗️ ▬▬💟💟&lt;/ol&gt; </t>
   </si>
   <si>
     <t>💚💚💚💚💚💚💚💚💚💚💚 1 MIN FROM 60 + 710 FWY ! 🕋🔴🔴🕋 ► EASTERN TPY 🕋🔴🔴🕋►__NEW GLOBAL STAFF__💚💚💚💚💚💚💚💚💚💚💚💚</t>
@@ -1073,7 +1076,7 @@
     <t>1374866 2474971 4130760 3108545473</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413076021.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413076020.jpg"/&gt; &lt;b&gt;&lt;a&gt;&lt;i&gt; ————————— 💃 Call now: 310-854-5473 💃—————————— &lt;/i&gt;&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413076021.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413076020.jpg"/&gt;  &lt;a&gt;  ————————— 💃 Call now: 310-854-5473 💃——————————  &lt;/a&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>*🌄🌄🌄🌄🌄🌄🌄 ▬▬▬▬▬▬▬▬▬▬▬▬ 🌄🌄🌄▬▬　GORGEOUS NEW STAFF 🍘 AMAZING RELAXATION　▬▬🌄🌄🌄 ▬▬▬▬▬▬▬▬▬▬▬ 🌄🌄🌄🌄🌄🌄🌄*</t>
@@ -1085,7 +1088,7 @@
     <t>1372023 2466502 4123112 1374866 2474971 4130760 3108545473</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt;&lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/412311214.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413076021.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413076020.jpg"/&gt; &lt;b&gt;&lt;a&gt;&lt;i&gt; ————————— 💃 Call now: 310-854-5473 💃—————————— &lt;/i&gt;&lt;/a&gt;&lt;/b&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt;&lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/412311214.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413076021.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413076020.jpg"/&gt;  &lt;a&gt;  ————————— 💃 Call now: 310-854-5473 💃——————————  &lt;/a&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>🍃🌺🍃 310-854-5473 🍃🌺🍃▬▬▬▬▬🌟▬▬▬▬ 🌺🍃 need real quality?  🌺▬▬▬▬▬▬▬▬⛔_call call_⛔▬▬▬▬▬▬▬▬</t>
@@ -1097,7 +1100,7 @@
     <t>1372023 2466502 4135145 4135522 3235347734 3233780152</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413514583.jpg"/&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413552245.jpg"/&gt; &lt;i&gt;&lt;a&gt; ❤️💚❤️💚&lt;/a&gt;————— &lt;b&gt;Llame para una cita: 323-534-7734 // 323-378-0152&lt;/b&gt;—————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt;&lt;b&gt;Latina nueva y dulce / New Latina Staff Everyday&lt;/b&gt;&lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt; &lt;b&gt;🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete&lt;/b&gt; &lt;b&gt;🌺 TENEMOS APARCAMIENTO / Spacious parking space&lt;/b&gt; &lt;b&gt;🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands &lt;/b&gt; &lt;b&gt;🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress&lt;/b&gt; &lt;a&gt;&lt;b&gt;————— 💚 1O am ~ 8 pm —————&lt;/b&gt;&lt;/a&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413514583.jpg"/&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413552245.jpg"/&gt;  &lt;a&gt; ❤️💚❤️💚&lt;/a&gt;—————  Llame para una cita: 323-534-7734 // 323-378-0152 —————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt; Latina nueva y dulce / New Latina Staff Everyday &lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt;  🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete   🌺 TENEMOS APARCAMIENTO / Spacious parking space   🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands    🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress  &lt;a&gt; ————— 💚 1O am ~ 8 pm ————— &lt;/a&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>💗💗💗💗💗 ▉▉▉▉▉▉▉▉▉▉▉▉▉▉▉ 🌺🌺🌺 Till 12 am TODAY // 323-534-7734 🌺🌺🌺 ▉▉▉▉▉▉▉▉▉▉▉▉▉▉▉ 💗💗💗💗💗</t>
@@ -1124,7 +1127,7 @@
     <t>6263378558</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt;💎 &lt;u&gt;&lt;b&gt; RELAX&lt;/b&gt;&lt;/u&gt; and &lt;u&gt;&lt;b&gt;REWIND&lt;/b&gt;&lt;/u&gt;--- you &lt;u&gt;&lt;b&gt;DESERVE&lt;/b&gt;&lt;/u&gt; it! 💎 &lt;center&gt; &lt;center&gt;🎀 Highly Trained Massage Therapists &lt;center&gt; &lt;center&gt;🎀 Private rooms providing a tranquil setting for complete Relaxation and Comfort &lt;center&gt; &lt;center&gt;🎀 Comfortable and Clean Facility &lt;center&gt; &lt;center&gt;🎀 OPEN EVERYDAY from 9AM to 9PM &lt;center&gt; &lt;center&gt;🎀 Call to make an Appointment/Walk-Ins Welcome &lt;center&gt; 💚 &lt;u&gt;&lt;b&gt;GREEN SPA&lt;/b&gt;&lt;/u&gt; 13020 Francisquito Ave. #1 Baldwin Park, CA 91706 📞 Call: (626) 337-8558 &lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt;💎    RELAX   and   REWIND  --- you   DESERVE   it! 💎 &lt;center&gt; &lt;center&gt;🎀 Highly Trained Massage Therapists &lt;center&gt; &lt;center&gt;🎀 Private rooms providing a tranquil setting for complete Relaxation and Comfort &lt;center&gt; &lt;center&gt;🎀 Comfortable and Clean Facility &lt;center&gt; &lt;center&gt;🎀 OPEN EVERYDAY from 9AM to 9PM &lt;center&gt; &lt;center&gt;🎀 Call to make an Appointment/Walk-Ins Welcome &lt;center&gt; 💚   GREEN SPA   13020 Francisquito Ave. #1 Baldwin Park, CA 91706 📞 Call: (626) 337-8558 &lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>★•:.•:*.🌟💖 PAMPER💖:.•:*. YOURSELF:•:*.💫 BEAUTIFUL 💫 💖 ASIANS •:*🌟 LATINAS💖 •:*🌟626-337-8558</t>
@@ -1160,7 +1163,7 @@
     <t>Los Angeles, west la visit me/ or come to you, Westside</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;/b&gt; &lt;i&gt;&lt;/i&gt; See my website please to find answers to any questions. See my site &lt;i&gt;&lt;u&gt; &lt;u&gt;&lt;a href="http://Www.BrazilianMassageTherapy.cuties-sites.com" target="_blank"&gt;Www.BrazilianMassageTherapy.cuties-sites.com&lt;/a&gt;&lt;/u&gt; &lt;/u&gt;&lt;/i&gt;</t>
+    <t xml:space="preserve">       See my website please to find answers to any questions. See my site     &lt;a href="http://Www.BrazilianMassageTherapy.cuties-sites.com" target="_blank"&gt;Www.BrazilianMassageTherapy.cuties-sites.com&lt;/a&gt;    </t>
   </si>
   <si>
     <t>HOTT Exotic Brazilian Busty Beauty  323-812-4185 Hot Exotic fun...incalls</t>
@@ -1202,6 +1205,9 @@
     <t>Hello guys!  My name is Betty, 22.    I am a Japanese mix Harbin girl.    I am 5'4", 105 lbs, with amazing measurement, 34D-24-34.    Call me if you wanna hang out wit a beautiful young asian lady thats full of fun.    I enjoy what I do so I will make sure you leave with a smile on your face!    I Available every days, evening and weekends.    ❤ OUTCALL ONLY : Everywhere ❤    CALL ME NOW ❤ 626-250-0822 ❤</t>
   </si>
   <si>
+    <t>153</t>
+  </si>
+  <si>
     <t>🍎❌❤❌🍎BEST OUTCALL 🍎⛔❤⛔🍎 626-250-0822 🍎⛔❤⛔🍎 SO HOT SO SWEET</t>
   </si>
   <si>
@@ -1259,7 +1265,7 @@
     <t>2133826699</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt; 💥💥💥 滿足( man zu)spa💥💥💥 💖 💖 Happy relax time : 11:00am~11:00pm &lt;a&gt; ⭐Call ☞ ☎: 213-382-6699 ⭐&lt;/a&gt; &lt;/b&gt;</t>
+    <t xml:space="preserve">   💥💥💥 滿足( man zu)spa💥💥💥 💖 💖 Happy relax time : 11:00am~11:00pm &lt;a&gt; ⭐Call ☞ ☎: 213-382-6699 ⭐&lt;/a&gt;  </t>
   </si>
   <si>
     <t>💎⬛️🛄◥◣◥◣◥◣◥◣◥◣🛄⬛️ ASIAN DOLL HOUSE... ⬛️🛄🔵🛄⬛️EVERY MAN`S FANTASY ⬛️🛄◥◣◥◣◥◣◥◣🛄 KOREAN TOWN ⬛</t>
@@ -1271,7 +1277,7 @@
     <t>Downtown, Los Angeles, 🔴Downey  🔴 Whittier 🔴 Norwalk🔴'</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt;&lt;img src=""/&gt;&lt;p&gt;&lt;b&gt;🕋🌷🕋 ___ &lt;a&gt; W H C&lt;/a&gt; SPA ___ 🕋🌷🕋 🏾 GREAT TIME GUARANTEED...🏾&lt;/b&gt;&lt;/p&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;&lt;img src=""/&gt;&lt;p&gt; 🕋🌷🕋 ___ &lt;a&gt; W H C&lt;/a&gt; SPA ___ 🕋🌷🕋 🏾 GREAT TIME GUARANTEED...🏾 &lt;/p&gt;&lt;/ol&gt;</t>
   </si>
   <si>
     <t>🚼🚼🚼🚼🚼🚼🚼🚼 🚼🚼🚼🚼🚼🚼🚼 ▃ W H C ▃ 🛍⬛🛍⬛🛍⬛🛍▃▃▃🛍N▃E▃W▃🛍▃ GLOBAL STAFF ! ▃🛍▃▃ 🚼🚼🚼🚼🚼🚼 🚼🚼🚼🚼🚼🚼</t>
@@ -1298,7 +1304,7 @@
     <t>3236548785</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;u&gt;&lt;/u&gt; &lt;h4 align="justify"&gt; &lt;span style="color: blue ;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;~❤ Get Ready For The Weekend🎉❤~ Discover A Welcome Escape From Weekday Tensions And Stress❤~ Experience Healing Relaxation❤~ Experience Your Time of Bliss❤~ Find A Rotating Staff of Thoughtful Professional Therapists Waiting To Enchant You With Magic Touch❤~ Meet Our Newest Girl Or Revisit A Favorite To Help You Refresh Your Life❤~ A Youthful Friendly Staff Waits To Guide You To Revival❤~ Ladies Expertly Trained in the Finer Arts of Asian Massage Therapy Look To Assist You❤~ Licensed, Knowledgeable, Experienced Asian Healers Here To Guide You To Unwind From Your Rigorous Day And Ease Your Mind❤~ Find The Right Treatment From Tension Strained Life❤~ Focus Your Qi And Gain Peace❤~ &lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h4&gt;  &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; &lt;b&gt;&lt;/b&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;❤❤❤ H2O MASSAGE❤❤❤&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt; &lt;/h1&gt; &lt;h4 style="text-align:center;"&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;color:black;text-align:center;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;HOURS OF OPERATION&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h4&gt; &lt;font color="red"&gt; &lt;span style="color:rgb(255,0,0);"&gt; &lt;/span&gt; &lt;h1 style="color:black;text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt; &lt;b style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;Open Monday thru  &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="color:rgb(255,0,0);font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;Sunday&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt; 10:00 AM To 10:00 PM&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="font-size:24px;line-height:1.5;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;      &lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h3&gt; &lt;/font&gt;&lt;font color="red"&gt; &lt;/font&gt;&lt;font color="red"&gt; &lt;h3 style="color:black;text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;Call Her ❤323-654-8785❤ Call Her  &lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h3&gt; &lt;p style="text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;span style="font-size:24px;"&gt;&lt;span style="line-height:normal;"&gt;$40/30 Minute ❤OR❤ $50/60 Minutes&lt;/span&gt;&lt;/span&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/p&gt; &lt;/font&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;a&gt;&lt;u&gt;❤ H2O MASSAGE ❤ 1011 N Fairfax Ave. ❤ West Hollywood, CA 90046&lt;/u&gt;&lt;/a&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h3&gt; &lt;p style="text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;u&gt;&lt;i style="margin:0px;padding:0px;border:0px;font-size:xx-large;line-height:normal;vertical-align:baseline;color:rgb(0,128,0);"&gt;&lt;font color="red" size="6"&gt;&lt;/font&gt;&lt;font color="blue" size="5"&gt;&lt;i style="margin:0px;padding:0px;border:0px;font-family:inherit;font-size:inherit;font-variant:inherit;line-height:inherit;vertical-align:baseline;"&gt;&lt;span&gt;&lt;span style="color:rgb(0,0,255);"&gt;~❤~ ❤ Clean ❤ Comfortable ❤ Private Rooms.  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt;❤ Swedish ❤ Deep Tissue ❤ Walking Style  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt;&lt;span style="line-height:normal;"&gt;❤ Blissful ❤ Relaxing Massage ~❤~ ❤Hot Shower or Table Shower Available ❤ Rotating Staff And Visiting Therapists For A New Encounter In Your Treatment ❤ ❤ YOUR Best Massage ❤&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;/span&gt;&lt;/span&gt; &lt;/i&gt;&lt;/font&gt;&lt;/i&gt; &lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/p&gt; &lt;/span&gt;&lt;/h1&gt;</t>
+    <t xml:space="preserve">                &lt;h4 align="justify"&gt; &lt;span style="color: blue ;"&gt;      &lt;font face="Impact" size="+2"&gt;~❤ Get Ready For The Weekend🎉❤~ Discover A Welcome Escape From Weekday Tensions And Stress❤~ Experience Healing Relaxation❤~ Experience Your Time of Bliss❤~ Find A Rotating Staff of Thoughtful Professional Therapists Waiting To Enchant You With Magic Touch❤~ Meet Our Newest Girl Or Revisit A Favorite To Help You Refresh Your Life❤~ A Youthful Friendly Staff Waits To Guide You To Revival❤~ Ladies Expertly Trained in the Finer Arts of Asian Massage Therapy Look To Assist You❤~ Licensed, Knowledgeable, Experienced Asian Healers Here To Guide You To Unwind From Your Rigorous Day And Ease Your Mind❤~ Find The Right Treatment From Tension Strained Life❤~ Focus Your Qi And Gain Peace❤~ &lt;/font&gt;      &lt;/span&gt;&lt;/h4&gt;              &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;    ❤❤❤ H2O MASSAGE❤❤❤    &lt;/span&gt; &lt;/h1&gt; &lt;h4 style="text-align:center;"&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;&lt;/font&gt;      &lt;/span&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;color:black;text-align:center;"&gt;    &lt;font color="red"&gt;HOURS OF OPERATION&lt;/font&gt;     &lt;/span&gt;&lt;/h4&gt; &lt;font color="red"&gt; &lt;span style="color:rgb(255,0,0);"&gt; &lt;/span&gt; &lt;h1 style="color:black;text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt; &lt;b style="font-size:24px;"&gt;    Open Monday thru       &lt;/span&gt;&lt;b style="color:rgb(255,0,0);font-size:24px;"&gt;     &lt;font color="red"&gt;Sunday&lt;/font&gt;      &lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;     &lt;font color="red"&gt; 10:00 AM To 10:00 PM&lt;/font&gt;     &lt;/span&gt;&lt;b style="font-size:24px;line-height:1.5;"&gt;    &lt;font color="red"&gt;      &lt;/font&gt;     &lt;/h3&gt; &lt;/font&gt;&lt;font color="red"&gt; &lt;/font&gt;&lt;font color="red"&gt; &lt;h3 style="color:black;text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;          &lt;/span&gt;&lt;b style="font-size:24px;"&gt;    &lt;font color="red"&gt;Call Her ❤323-654-8785❤ Call Her  &lt;/font&gt;     &lt;/h3&gt; &lt;p style="text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;"&gt;    &lt;span style="font-size:24px;"&gt;&lt;span style="line-height:normal;"&gt;$40/30 Minute ❤OR❤ $50/60 Minutes&lt;/span&gt;&lt;/span&gt;      &lt;/span&gt;&lt;/p&gt; &lt;/font&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;      &lt;a&gt; ❤ H2O MASSAGE ❤ 1011 N Fairfax Ave. ❤ West Hollywood, CA 90046 &lt;/a&gt;     &lt;/span&gt;&lt;/h3&gt; &lt;p style="text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;      &lt;i style="margin:0px;padding:0px;border:0px;font-size:xx-large;line-height:normal;vertical-align:baseline;color:rgb(0,128,0);"&gt;&lt;font color="red" size="6"&gt;&lt;/font&gt;&lt;font color="blue" size="5"&gt;&lt;i style="margin:0px;padding:0px;border:0px;font-family:inherit;font-size:inherit;font-variant:inherit;line-height:inherit;vertical-align:baseline;"&gt;&lt;span&gt;&lt;span style="color:rgb(0,0,255);"&gt;~❤~ ❤ Clean ❤ Comfortable ❤ Private Rooms.  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt;❤ Swedish ❤ Deep Tissue ❤ Walking Style  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt;&lt;span style="line-height:normal;"&gt;❤ Blissful ❤ Relaxing Massage ~❤~ ❤Hot Shower or Table Shower Available ❤ Rotating Staff And Visiting Therapists For A New Encounter In Your Treatment ❤ ❤ YOUR Best Massage ❤&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;/span&gt;&lt;/span&gt;  &lt;/font&gt;        &lt;/span&gt;&lt;/p&gt; &lt;/span&gt;&lt;/h1&gt;</t>
   </si>
   <si>
     <t>🎉Happy Friday🎊Get Weekend Ready💝Stress Therapy Massage💖Trim Youthful Asian Girls❤ Relax💞</t>
@@ -1313,7 +1319,7 @@
     <t>3104460765 0525251 1184387788 9501785</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;table align="middle" border="0" cellspacing="2" width="100%"&gt; &lt;tr&gt; &lt;td align="center"&gt; &lt;div style="background-color:pink"&gt; &lt;img border="0" src="http://text.glitter-graphics.net/tpurp/v.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/p.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/e.gif"/&gt; &lt;font color="Green" size="6"&gt;★★★ &lt;b&gt; Best Massage In Town&lt;/b&gt; ★★★&lt;/font&gt; &lt;font color="blue" size="5"&gt;&lt;i&gt;♣ Shiatsu ♣ Swedish ♣ Deep Tissue ♣ Light Touch ♣ 4 hands ♣&lt;/i&gt;&lt;/font&gt;&lt;i&gt; &lt;font color="green" size="5"&gt;✦ Experience the Remarkable Soothing Treatment ☆ Magic Hands ✦&lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;b&gt;☎ CALL NOW: 310-446-0765 &lt;/b&gt;&lt;/font&gt; &lt;font color="green" size="4"&gt;10am-9:00pm,Open 7 Days a Week&lt;/font&gt; &lt;font color="brown" size="5"&gt;Walk-ins &amp;amp; Appointment Welcome&lt;/font&gt; &lt;font color="green" size="5"&gt;&lt;i&gt;💕 Take Your Mind Away From All The Stress 💕&lt;/i&gt;&lt;/font&gt;&lt;i&gt; &lt;img border="0" src="http://text.glitter-graphics.net/s/f.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/r.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/n.gif"/&gt; &lt;font color="blue" size="5"&gt;☛ 1632 westwood blvd la ca 90024 &lt;font color="blue" size="4"&gt; Between Santa Monica Bl + Wilshire Bl &lt;/font&gt; &lt;a href="https://www.google.com/maps/place/1632+Westwood+Blvd,+Los+Angeles,+CA+90024/@34.0525251,-118.4387788,17z/data=!3m1!4b1!4m2!3m1!1s0x80c2bb8262bc203f:0x58adffbf9501785c" target="_blank"&gt;Click Here for map&lt;/a&gt;&lt;/font&gt; &lt;/i&gt;&lt;/i&gt;&lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/center&gt; </t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;table align="middle" border="0" cellspacing="2" width="100%"&gt; &lt;tr&gt; &lt;td align="center"&gt; &lt;div style="background-color:pink"&gt; &lt;img border="0" src="http://text.glitter-graphics.net/tpurp/v.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/p.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/tpurp/e.gif"/&gt; &lt;font color="Green" size="6"&gt;★★★   Best Massage In Town  ★★★&lt;/font&gt; &lt;font color="blue" size="5"&gt; ♣ Shiatsu ♣ Swedish ♣ Deep Tissue ♣ Light Touch ♣ 4 hands ♣ &lt;/font&gt;  &lt;font color="green" size="5"&gt;✦ Experience the Remarkable Soothing Treatment ☆ Magic Hands ✦&lt;/font&gt; &lt;font color="red" size="6"&gt; ☎ CALL NOW: 310-446-0765  &lt;/font&gt; &lt;font color="green" size="4"&gt;10am-9:00pm,Open 7 Days a Week&lt;/font&gt; &lt;font color="brown" size="5"&gt;Walk-ins &amp;amp; Appointment Welcome&lt;/font&gt; &lt;font color="green" size="5"&gt; 💕 Take Your Mind Away From All The Stress 💕 &lt;/font&gt;  &lt;img border="0" src="http://text.glitter-graphics.net/s/f.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/r.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/s/n.gif"/&gt; &lt;font color="blue" size="5"&gt;☛ 1632 westwood blvd la ca 90024 &lt;font color="blue" size="4"&gt; Between Santa Monica Bl + Wilshire Bl &lt;/font&gt; &lt;a href="https://www.google.com/maps/place/1632+Westwood+Blvd,+Los+Angeles,+CA+90024/@34.0525251,-118.4387788,17z/data=!3m1!4b1!4m2!3m1!1s0x80c2bb8262bc203f:0x58adffbf9501785c" target="_blank"&gt;Click Here for map&lt;/a&gt;&lt;/font&gt;   &lt;/div&gt; &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/center&gt; </t>
   </si>
   <si>
     <t>🏵 VIP  ❤❤▬ⓢⓟⓔⓒⓘⓐⓛ▬💋▬▬🌈🌈▬👉 Best Service in Town 💋 New Staff</t>
@@ -3529,7 +3535,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -3552,11 +3558,11 @@
       <c r="I48" t="s">
         <v>227</v>
       </c>
-      <c r="J48" t="n">
-        <v>2304</v>
+      <c r="J48" t="s">
+        <v>228</v>
       </c>
       <c r="K48" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L48" t="s">
         <v>22</v>
@@ -3573,10 +3579,10 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -3585,16 +3591,16 @@
         <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J49" t="n">
         <v>1706</v>
       </c>
       <c r="K49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L49" t="s">
         <v>22</v>
@@ -3611,10 +3617,10 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E50" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -3623,16 +3629,16 @@
         <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J50" t="n">
         <v>1808</v>
       </c>
       <c r="K50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L50" t="s">
         <v>22</v>
@@ -3649,10 +3655,10 @@
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -3661,16 +3667,16 @@
         <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J51" t="n">
         <v>1623</v>
       </c>
       <c r="K51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L51" t="s">
         <v>22</v>
@@ -3687,10 +3693,10 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -3699,16 +3705,16 @@
         <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J52" t="n">
         <v>2135</v>
       </c>
       <c r="K52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L52" t="s">
         <v>22</v>
@@ -3725,7 +3731,7 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
         <v>159</v>
@@ -3746,7 +3752,7 @@
         <v>1706</v>
       </c>
       <c r="K53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L53" t="s">
         <v>22</v>
@@ -3763,10 +3769,10 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -3775,16 +3781,16 @@
         <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I54" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J54" t="n">
         <v>1706</v>
       </c>
       <c r="K54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L54" t="s">
         <v>22</v>
@@ -3801,7 +3807,7 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E55" t="s">
         <v>40</v>
@@ -3816,13 +3822,13 @@
         <v>41</v>
       </c>
       <c r="I55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J55" t="n">
         <v>2019</v>
       </c>
       <c r="K55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L55" t="s">
         <v>22</v>
@@ -3839,10 +3845,10 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -3851,16 +3857,16 @@
         <v>18</v>
       </c>
       <c r="H56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J56" t="n">
         <v>1903</v>
       </c>
       <c r="K56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L56" t="s">
         <v>22</v>
@@ -3877,10 +3883,10 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -3889,16 +3895,16 @@
         <v>18</v>
       </c>
       <c r="H57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J57" t="n">
         <v>1706</v>
       </c>
       <c r="K57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L57" t="s">
         <v>22</v>
@@ -3915,28 +3921,28 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E58" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H58" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I58" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J58" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K58" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L58" t="s">
         <v>22</v>
@@ -3953,10 +3959,10 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E59" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -3965,16 +3971,16 @@
         <v>18</v>
       </c>
       <c r="H59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I59" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J59" t="n">
         <v>1710</v>
       </c>
       <c r="K59" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L59" t="s">
         <v>22</v>
@@ -3991,10 +3997,10 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -4003,16 +4009,16 @@
         <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I60" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J60" t="n">
         <v>1721</v>
       </c>
       <c r="K60" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L60" t="s">
         <v>22</v>
@@ -4029,10 +4035,10 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -4041,16 +4047,16 @@
         <v>18</v>
       </c>
       <c r="H61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J61" t="n">
         <v>1802</v>
       </c>
       <c r="K61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L61" t="s">
         <v>22</v>
@@ -4067,10 +4073,10 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E62" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -4079,16 +4085,16 @@
         <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I62" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J62" t="n">
         <v>2348</v>
       </c>
       <c r="K62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L62" t="s">
         <v>22</v>
@@ -4105,10 +4111,10 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -4118,13 +4124,13 @@
       </c>
       <c r="H63" t="s"/>
       <c r="I63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J63" t="n">
         <v>1903</v>
       </c>
       <c r="K63" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L63" t="s">
         <v>22</v>
@@ -4141,7 +4147,7 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E64" t="s">
         <v>24</v>
@@ -4177,28 +4183,28 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J65" t="n">
         <v>1711</v>
       </c>
       <c r="K65" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L65" t="s">
         <v>22</v>
@@ -4215,10 +4221,10 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -4227,16 +4233,16 @@
         <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I66" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J66" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L66" t="s">
         <v>22</v>
@@ -4253,10 +4259,10 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -4265,16 +4271,16 @@
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I67" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J67" t="n">
         <v>1352</v>
       </c>
       <c r="K67" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L67" t="s">
         <v>22</v>
@@ -4291,10 +4297,10 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E68" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -4303,16 +4309,16 @@
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J68" t="n">
         <v>1838</v>
       </c>
       <c r="K68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L68" t="s">
         <v>22</v>
@@ -4329,7 +4335,7 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E69" t="s">
         <v>184</v>
@@ -4350,7 +4356,7 @@
         <v>1808</v>
       </c>
       <c r="K69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L69" t="s">
         <v>22</v>
@@ -4367,10 +4373,10 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E70" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -4379,16 +4385,16 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I70" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J70" t="n">
         <v>1606</v>
       </c>
       <c r="K70" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L70" t="s">
         <v>22</v>
@@ -4405,28 +4411,28 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H71" t="s">
         <v>108</v>
       </c>
       <c r="I71" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J71" t="n">
         <v>1734</v>
       </c>
       <c r="K71" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L71" t="s">
         <v>22</v>
@@ -4443,7 +4449,7 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E72" t="s">
         <v>57</v>
@@ -4456,13 +4462,13 @@
       </c>
       <c r="H72" t="s"/>
       <c r="I72" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J72" t="n">
         <v>1731</v>
       </c>
       <c r="K72" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L72" t="s">
         <v>22</v>
@@ -4479,10 +4485,10 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -4491,16 +4497,16 @@
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I73" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J73" t="n">
         <v>1607</v>
       </c>
       <c r="K73" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L73" t="s">
         <v>22</v>
@@ -4517,10 +4523,10 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E74" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -4529,16 +4535,16 @@
         <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J74" t="n">
         <v>1902</v>
       </c>
       <c r="K74" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L74" t="s">
         <v>22</v>
@@ -4555,10 +4561,10 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E75" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
@@ -4567,16 +4573,16 @@
         <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I75" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J75" t="n">
         <v>1819</v>
       </c>
       <c r="K75" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L75" t="s">
         <v>22</v>
@@ -4593,10 +4599,10 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E76" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -4606,13 +4612,13 @@
       </c>
       <c r="H76" t="s"/>
       <c r="I76" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J76" t="n">
         <v>1808</v>
       </c>
       <c r="K76" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L76" t="s">
         <v>22</v>
@@ -4629,10 +4635,10 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E77" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -4641,16 +4647,16 @@
         <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I77" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J77" t="n">
         <v>2300</v>
       </c>
       <c r="K77" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L77" t="s">
         <v>22</v>
@@ -4667,10 +4673,10 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E78" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -4679,16 +4685,16 @@
         <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J78" t="n">
         <v>1603</v>
       </c>
       <c r="K78" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L78" t="s">
         <v>22</v>
@@ -4705,10 +4711,10 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E79" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -4717,16 +4723,16 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I79" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J79" t="n">
         <v>2225</v>
       </c>
       <c r="K79" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L79" t="s">
         <v>22</v>
@@ -4743,7 +4749,7 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E80" t="s">
         <v>86</v>
@@ -4755,16 +4761,16 @@
         <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I80" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J80" t="n">
         <v>1759</v>
       </c>
       <c r="K80" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L80" t="s">
         <v>22</v>
@@ -4781,10 +4787,10 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E81" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -4793,16 +4799,16 @@
         <v>18</v>
       </c>
       <c r="H81" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I81" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J81" t="n">
         <v>1706</v>
       </c>
       <c r="K81" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L81" t="s">
         <v>22</v>
@@ -4819,7 +4825,7 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E82" t="s">
         <v>16</v>
@@ -4840,7 +4846,7 @@
         <v>1706</v>
       </c>
       <c r="K82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L82" t="s">
         <v>22</v>
@@ -4857,10 +4863,10 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E83" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -4869,16 +4875,16 @@
         <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I83" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J83" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K83" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L83" t="s">
         <v>22</v>
@@ -4895,10 +4901,10 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E84" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
@@ -4908,13 +4914,13 @@
       </c>
       <c r="H84" t="s"/>
       <c r="I84" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J84" t="n">
         <v>1659</v>
       </c>
       <c r="K84" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L84" t="s">
         <v>22</v>
@@ -4931,10 +4937,10 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E85" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
@@ -4950,7 +4956,7 @@
         <v>1902</v>
       </c>
       <c r="K85" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L85" t="s">
         <v>22</v>
@@ -4967,10 +4973,10 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E86" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
@@ -4979,16 +4985,16 @@
         <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I86" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="J86" t="n">
         <v>1829</v>
       </c>
       <c r="K86" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L86" t="s">
         <v>22</v>
@@ -4999,16 +5005,16 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E87" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
@@ -5017,16 +5023,16 @@
         <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I87" t="s">
-        <v>394</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2352</v>
+        <v>395</v>
+      </c>
+      <c r="J87" t="s">
+        <v>396</v>
       </c>
       <c r="K87" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L87" t="s">
         <v>22</v>
@@ -5043,10 +5049,10 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E88" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -5055,16 +5061,16 @@
         <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I88" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J88" t="n">
         <v>2101</v>
       </c>
       <c r="K88" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L88" t="s">
         <v>22</v>
@@ -5081,10 +5087,10 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E89" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
@@ -5093,16 +5099,16 @@
         <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I89" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J89" t="n">
         <v>1759</v>
       </c>
       <c r="K89" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L89" t="s">
         <v>22</v>
@@ -5119,10 +5125,10 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E90" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
@@ -5131,16 +5137,16 @@
         <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="I90" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J90" t="n">
         <v>1706</v>
       </c>
       <c r="K90" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L90" t="s">
         <v>22</v>
@@ -5157,10 +5163,10 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E91" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
@@ -5169,16 +5175,16 @@
         <v>18</v>
       </c>
       <c r="H91" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="I91" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J91" t="n">
         <v>1501</v>
       </c>
       <c r="K91" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L91" t="s">
         <v>22</v>
@@ -5195,10 +5201,10 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E92" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -5208,13 +5214,13 @@
       </c>
       <c r="H92" t="s"/>
       <c r="I92" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J92" t="n">
         <v>1507</v>
       </c>
       <c r="K92" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L92" t="s">
         <v>22</v>
@@ -5231,10 +5237,10 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E93" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -5246,13 +5252,13 @@
         <v>59</v>
       </c>
       <c r="I93" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="J93" t="n">
         <v>1830</v>
       </c>
       <c r="K93" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L93" t="s">
         <v>22</v>
@@ -5269,10 +5275,10 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E94" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -5281,16 +5287,16 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I94" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J94" t="n">
         <v>2036</v>
       </c>
       <c r="K94" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L94" t="s">
         <v>22</v>
@@ -5307,10 +5313,10 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E95" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -5319,16 +5325,16 @@
         <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I95" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J95" t="n">
         <v>1706</v>
       </c>
       <c r="K95" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L95" t="s">
         <v>22</v>
@@ -5345,10 +5351,10 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E96" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -5357,16 +5363,16 @@
         <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I96" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J96" t="n">
         <v>1444</v>
       </c>
       <c r="K96" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L96" t="s">
         <v>22</v>
@@ -5383,10 +5389,10 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E97" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -5396,13 +5402,13 @@
       </c>
       <c r="H97" t="s"/>
       <c r="I97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J97" t="n">
         <v>1607</v>
       </c>
       <c r="K97" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L97" t="s">
         <v>22</v>
@@ -5419,10 +5425,10 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E98" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
@@ -5431,16 +5437,16 @@
         <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I98" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J98" t="n">
         <v>2028</v>
       </c>
       <c r="K98" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L98" t="s">
         <v>22</v>
@@ -5457,26 +5463,26 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E99" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H99" t="s"/>
       <c r="I99" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J99" t="n">
         <v>2320</v>
       </c>
       <c r="K99" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L99" t="s">
         <v>22</v>
@@ -5493,10 +5499,10 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E100" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
@@ -5505,16 +5511,16 @@
         <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I100" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="J100" t="n">
         <v>1906</v>
       </c>
       <c r="K100" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L100" t="s">
         <v>22</v>
@@ -5531,10 +5537,10 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E101" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
@@ -5543,16 +5549,16 @@
         <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="I101" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J101" t="n">
         <v>1607</v>
       </c>
       <c r="K101" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L101" t="s">
         <v>22</v>
